--- a/biology/Zoologie/Deinagkistrodon_acutus/Deinagkistrodon_acutus.xlsx
+++ b/biology/Zoologie/Deinagkistrodon_acutus/Deinagkistrodon_acutus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deinagkistrodon acutus, unique représentant du genre Deinagkistrodon est une espèce de serpents de la famille des Viperidae[1] parfois appelée vipère des cent pas[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deinagkistrodon acutus, unique représentant du genre Deinagkistrodon est une espèce de serpents de la famille des Viperidae parfois appelée vipère des cent pas.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 à Taïwan ;
 en République populaire de Chine ;
 dans le nord du Viêt Nam.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent venimeux mesure en moyenne 1,2 mètre de long, le plus grand spécimen mesuré ayant atteint 1,5 mètre. Il est de couleur gris à brun-rouge, avec sur les côtés des triangles gris ou beige. La tête est plus sombre.
 Il se nourrit d'oiseaux, de souris, de lézards et de grenouilles.
@@ -580,10 +596,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Deinagkistrodon[3], du grec δεινός, deinós, « terrible », et Agkistrodon, le genre dans lequel elle était classée précédemment, a été choisi en référence à la dangerosité de celle-ci.
-Son nom d'espèce, du latin acutus[4], « aiguisé, pointu », lui a été donné en référence au lobe pointu présent à l'extrémité de son museau.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Deinagkistrodon, du grec δεινός, deinós, « terrible », et Agkistrodon, le genre dans lequel elle était classée précédemment, a été choisi en référence à la dangerosité de celle-ci.
+Son nom d'espèce, du latin acutus, « aiguisé, pointu », lui a été donné en référence au lobe pointu présent à l'extrémité de son museau.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gloyd, 1979 : A New Generic Name For The Hundred-Pace. Proceedings of The Biological Society of Washington, vol. 91, p. 963-964 (texte intégral).
 Günther, 1888 : On a collection of reptiles from China. Annals and Magazine of Natural History, ser. 6, n. 1, p. 165-172 (texte intégral).</t>
